--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="38">
   <si>
     <t>GP</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Familarizacion con el entorno Git</t>
+  </si>
+  <si>
+    <t>Implementacion de la clase descripcion.java</t>
+  </si>
+  <si>
+    <t>Comienzo de la clase descripcion.java</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1459,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1479,6 +1481,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,7 +1916,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2000,11 +2006,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80609280"/>
-        <c:axId val="80611584"/>
+        <c:axId val="49569152"/>
+        <c:axId val="49579904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80609280"/>
+        <c:axId val="49569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,13 +2046,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80611584"/>
+        <c:crossAx val="49579904"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80611584"/>
+        <c:axId val="49579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2103,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80609280"/>
+        <c:crossAx val="49569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2118,7 +2124,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2131,7 +2137,7 @@
     <xdr:ext cx="10191750" cy="5562600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1" descr="Chart 0"/>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart 0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2495,8 +2501,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -5180,8 +5186,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -8012,8 +8018,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="122"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="142"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -10797,8 +10803,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -13781,7 +13787,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13797,7 +13803,7 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -14413,8 +14419,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="122"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="142"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -14554,55 +14560,55 @@
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="123">
+      <c r="B3" s="121">
         <v>84</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C3" s="122">
         <v>2</v>
       </c>
-      <c r="D3" s="124">
+      <c r="D3" s="122">
         <v>45</v>
       </c>
-      <c r="E3" s="125">
-        <v>0</v>
-      </c>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="123">
+        <v>0</v>
+      </c>
+      <c r="F3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="127">
+      <c r="G3" s="125">
         <f t="shared" ref="G3:G6" si="0">SUM(H3:AI3)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="130">
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="128">
         <v>1</v>
       </c>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="128"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="126"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14623,55 +14629,55 @@
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="131">
+      <c r="B4" s="129">
         <v>84</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C4" s="130">
         <v>2</v>
       </c>
-      <c r="D4" s="132">
+      <c r="D4" s="130">
         <v>41</v>
       </c>
-      <c r="E4" s="133">
-        <v>0</v>
-      </c>
-      <c r="F4" s="134" t="s">
+      <c r="E4" s="131">
+        <v>0</v>
+      </c>
+      <c r="F4" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="125">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="137">
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="135">
         <v>1</v>
       </c>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="135"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="133"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -14692,55 +14698,55 @@
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="131">
+      <c r="B5" s="129">
         <v>84</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C5" s="130">
         <v>2</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="130">
         <v>41</v>
       </c>
-      <c r="E5" s="133">
-        <v>0</v>
-      </c>
-      <c r="F5" s="134" t="s">
+      <c r="E5" s="131">
+        <v>0</v>
+      </c>
+      <c r="F5" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="137">
+      <c r="H5" s="133"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="135">
         <v>2</v>
       </c>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="135"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="133"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -14761,55 +14767,55 @@
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="138">
+      <c r="B6" s="136">
         <v>84</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="137">
         <v>2</v>
       </c>
-      <c r="D6" s="139">
+      <c r="D6" s="137">
         <v>42</v>
       </c>
-      <c r="E6" s="140">
-        <v>0</v>
-      </c>
-      <c r="F6" s="141" t="s">
+      <c r="E6" s="138">
+        <v>0</v>
+      </c>
+      <c r="F6" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="127">
+      <c r="G6" s="125">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135">
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133">
         <v>0.5</v>
       </c>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="136"/>
-      <c r="AG6" s="136"/>
-      <c r="AH6" s="136"/>
-      <c r="AI6" s="135"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="133"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -14836,7 +14842,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="G7" s="15">
-        <f t="shared" ref="G6:G36" si="1">SUM(H7:AI7)</f>
+        <f t="shared" ref="G7:G36" si="1">SUM(H7:AI7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="19"/>
@@ -17038,7 +17044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17098,8 +17104,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -17248,43 +17254,43 @@
     </row>
     <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="138">
+      <c r="B3" s="136">
         <v>84</v>
       </c>
-      <c r="C3" s="139">
+      <c r="C3" s="137">
         <v>2</v>
       </c>
-      <c r="D3" s="139">
+      <c r="D3" s="137">
         <v>42</v>
       </c>
-      <c r="E3" s="140">
-        <v>0</v>
-      </c>
-      <c r="F3" s="141" t="s">
+      <c r="E3" s="138">
+        <v>0</v>
+      </c>
+      <c r="F3" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="127">
+      <c r="G3" s="125">
         <f t="shared" ref="G3:G4" si="0">SUM(H3:AL3)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142">
+      <c r="H3" s="126"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140">
         <v>1</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="142"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="140"/>
       <c r="X3" s="48"/>
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
@@ -17320,43 +17326,43 @@
     </row>
     <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="138">
+      <c r="B4" s="136">
         <v>84</v>
       </c>
-      <c r="C4" s="139">
+      <c r="C4" s="137">
         <v>2</v>
       </c>
-      <c r="D4" s="139">
+      <c r="D4" s="137">
         <v>42</v>
       </c>
-      <c r="E4" s="140">
-        <v>0</v>
-      </c>
-      <c r="F4" s="141" t="s">
+      <c r="E4" s="138">
+        <v>0</v>
+      </c>
+      <c r="F4" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="125">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139">
+      <c r="H4" s="133"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137">
         <v>2.5</v>
       </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="139"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="137"/>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
@@ -17408,7 +17414,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G3:G36" si="1">SUM(H5:AL5)</f>
+        <f t="shared" ref="G5:G36" si="1">SUM(H5:AL5)</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="19"/>
@@ -19852,7 +19858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -19909,8 +19917,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="122"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="142"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -20056,14 +20064,24 @@
     </row>
     <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="17">
+        <v>84</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2</v>
+      </c>
+      <c r="D3" s="48">
+        <v>52</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AK3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -20076,7 +20094,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
       <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="S3" s="16">
+        <v>0.5</v>
+      </c>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -20115,14 +20135,24 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="17">
+        <v>84</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2</v>
+      </c>
+      <c r="D4" s="48">
+        <v>52</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -20137,7 +20167,9 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
       <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="U4" s="23">
+        <v>1</v>
+      </c>
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
@@ -22012,7 +22044,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -22060,7 +22092,7 @@
       </c>
       <c r="S36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="72">
         <f t="shared" si="1"/>
@@ -22068,7 +22100,7 @@
       </c>
       <c r="U36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="72">
         <f t="shared" si="1"/>
@@ -22638,8 +22670,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -25413,8 +25445,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="122"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="142"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -28143,8 +28175,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -30919,8 +30951,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="122"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -33694,8 +33726,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="122"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="142"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="41">
   <si>
     <t>GP</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>Comienzo de la clase descripcion.java</t>
+  </si>
+  <si>
+    <t>Cambios en la clase Descripcion, y View</t>
+  </si>
+  <si>
+    <t>Practica 3. Planificación de auditoria.</t>
+  </si>
+  <si>
+    <t>Reunion con el profesor sobre la calidad</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,15 +1490,300 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1916,7 +2210,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2006,11 +2300,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49569152"/>
-        <c:axId val="49579904"/>
+        <c:axId val="74804608"/>
+        <c:axId val="74815360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49569152"/>
+        <c:axId val="74804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,13 +2340,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49579904"/>
+        <c:crossAx val="74815360"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49579904"/>
+        <c:axId val="74815360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2397,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49569152"/>
+        <c:crossAx val="74804608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,7 +2418,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2501,8 +2795,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -5110,12 +5404,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5186,8 +5480,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -7943,12 +8237,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8018,8 +8312,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="143"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -10727,12 +11021,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10803,8 +11097,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -13560,12 +13854,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13787,7 +14081,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13803,7 +14097,7 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -14344,12 +14638,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14419,8 +14713,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="143"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -17026,12 +17320,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17045,7 +17339,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -17104,8 +17398,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -19840,12 +20134,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19859,7 +20153,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -19917,8 +20211,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="143"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -20062,66 +20356,65 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="17">
+      <c r="B3" s="144">
         <v>84</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="145">
         <v>2</v>
       </c>
-      <c r="D3" s="48">
-        <v>52</v>
-      </c>
-      <c r="E3" s="53">
-        <v>0</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>37</v>
+      <c r="D3" s="145">
+        <v>44</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>40</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G36" si="0">SUM(H3:AK3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="145">
+        <v>1</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="18"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="22"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -20133,7 +20426,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>84</v>
@@ -20142,57 +20435,57 @@
         <v>2</v>
       </c>
       <c r="D4" s="48">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="53">
         <v>0</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23">
-        <v>1</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
+        <f t="shared" ref="G4:G7" si="0">SUM(H4:AK4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="22"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="18"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
@@ -20204,16 +20497,26 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="17">
+        <v>84</v>
+      </c>
+      <c r="C5" s="48">
+        <v>2</v>
+      </c>
+      <c r="D5" s="48">
+        <v>54</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -20228,7 +20531,9 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="U5" s="23">
+        <v>1</v>
+      </c>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
@@ -20263,16 +20568,26 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="144">
+        <v>84</v>
+      </c>
+      <c r="C6" s="145">
+        <v>2</v>
+      </c>
+      <c r="D6" s="145">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H6:AK6)</f>
+        <v>2</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -20288,7 +20603,9 @@
       <c r="S6" s="19"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="V6" s="145">
+        <v>2</v>
+      </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="19"/>
@@ -20322,16 +20639,26 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="21">
+        <v>84</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>54</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G7" si="1">SUM(H7:AK7)</f>
+        <v>1</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -20350,7 +20677,9 @@
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
-      <c r="Y7" s="19"/>
+      <c r="Y7" s="19">
+        <v>1</v>
+      </c>
       <c r="Z7" s="19"/>
       <c r="AA7" s="23"/>
       <c r="AB7" s="23"/>
@@ -20381,17 +20710,14 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -20401,7 +20727,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="Q8" s="145"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="23"/>
@@ -20448,7 +20774,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="XFD1048576:A1" si="2">SUM(H9:AK9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="19"/>
@@ -20507,7 +20833,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
       <c r="G10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="19"/>
@@ -20566,7 +20892,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="19"/>
@@ -20625,7 +20951,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="G12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="19"/>
@@ -20684,7 +21010,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
       <c r="G13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
@@ -20743,7 +21069,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
       <c r="G14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
@@ -20802,7 +21128,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="19"/>
@@ -20861,7 +21187,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="19"/>
@@ -20920,7 +21246,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="19"/>
@@ -20979,7 +21305,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="19"/>
@@ -21038,7 +21364,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="19"/>
@@ -21097,7 +21423,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="19"/>
@@ -21156,7 +21482,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="19"/>
@@ -21215,7 +21541,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="19"/>
@@ -21274,7 +21600,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="19"/>
@@ -21333,7 +21659,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="19"/>
@@ -21392,7 +21718,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
       <c r="G25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="19"/>
@@ -21451,7 +21777,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
       <c r="G26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="19"/>
@@ -21510,7 +21836,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="19"/>
@@ -21569,7 +21895,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
       <c r="G28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="19"/>
@@ -21628,7 +21954,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
       <c r="G29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="19"/>
@@ -21687,7 +22013,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
       <c r="G30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="19"/>
@@ -21746,7 +22072,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="19"/>
@@ -21805,7 +22131,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
       <c r="G32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="19"/>
@@ -21864,7 +22190,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="G33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="19"/>
@@ -21923,7 +22249,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
       <c r="G34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="19"/>
@@ -21982,7 +22308,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="31"/>
@@ -22043,127 +22369,127 @@
         <v>8</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.5</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
+        <f t="shared" ref="XFD1048576:A1" si="3">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="W36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y36" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL36" s="1"/>
@@ -22594,12 +22920,62 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22670,8 +23046,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -25370,12 +25746,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25445,8 +25821,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="143"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -28098,12 +28474,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28175,8 +28551,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -30875,12 +31251,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30951,8 +31327,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -33651,12 +34027,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33726,8 +34102,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="143"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -36379,12 +36755,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -36,6 +36,7 @@
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
   <si>
     <t>GP</t>
   </si>
@@ -439,6 +440,12 @@
   </si>
   <si>
     <t>Reunion con el profesor sobre la calidad</t>
+  </si>
+  <si>
+    <t>Reunción de planificación</t>
+  </si>
+  <si>
+    <t>Fichero de lecciones aprendidas</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,103 +1498,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2210,7 +2134,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2300,11 +2224,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74804608"/>
-        <c:axId val="74815360"/>
+        <c:axId val="50175360"/>
+        <c:axId val="50198400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74804608"/>
+        <c:axId val="50175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,13 +2264,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74815360"/>
+        <c:crossAx val="50198400"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74815360"/>
+        <c:axId val="50198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2321,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74804608"/>
+        <c:crossAx val="50175360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,7 +2342,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2795,8 +2719,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -5404,12 +5328,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5480,8 +5404,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -8237,12 +8161,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8312,8 +8236,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="143"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -11021,12 +10945,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11097,8 +11021,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -13854,12 +13778,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14081,7 +14005,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14097,7 +14021,7 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -14638,12 +14562,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14713,8 +14637,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="143"/>
+      <c r="AO1" s="146"/>
+      <c r="AP1" s="147"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -17320,12 +17244,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17398,8 +17322,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -20134,12 +20058,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20153,7 +20077,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -20211,8 +20135,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="143"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -20356,21 +20280,21 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" s="147" customFormat="1" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="144">
+      <c r="B3" s="142">
         <v>84</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="143">
         <v>2</v>
       </c>
-      <c r="D3" s="145">
+      <c r="D3" s="143">
         <v>44</v>
       </c>
       <c r="E3" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="144" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="15">
@@ -20385,7 +20309,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="145">
+      <c r="Q3" s="143">
         <v>1</v>
       </c>
       <c r="R3" s="19"/>
@@ -20444,7 +20368,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G7" si="0">SUM(H4:AK4)</f>
+        <f t="shared" ref="G4:G5" si="0">SUM(H4:AK4)</f>
         <v>0.5</v>
       </c>
       <c r="H4" s="16"/>
@@ -20570,19 +20494,19 @@
     </row>
     <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="144">
+      <c r="B6" s="142">
         <v>84</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="143">
         <v>2</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="143">
         <v>44</v>
       </c>
       <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="144" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="15">
@@ -20603,7 +20527,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="145">
+      <c r="V6" s="143">
         <v>2</v>
       </c>
       <c r="W6" s="23"/>
@@ -20710,14 +20634,27 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" s="147" customFormat="1" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="142">
+        <v>84</v>
+      </c>
+      <c r="C8" s="143">
+        <v>2</v>
+      </c>
+      <c r="D8" s="143">
+        <v>53</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8" si="2">SUM(H8:AK8)</f>
+        <v>0.75</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -20727,7 +20664,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
-      <c r="Q8" s="145"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="23"/>
@@ -20736,7 +20673,9 @@
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="Z8" s="148">
+        <v>0.75</v>
+      </c>
       <c r="AA8" s="23"/>
       <c r="AB8" s="23"/>
       <c r="AC8" s="23"/>
@@ -20768,14 +20707,24 @@
     </row>
     <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>45</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="15">
-        <f t="shared" ref="XFD1048576:A1" si="2">SUM(H9:AK9)</f>
-        <v>0</v>
+        <f t="shared" ref="G9:G36" si="3">SUM(H9:AK9)</f>
+        <v>0.25</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -20795,7 +20744,9 @@
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
+      <c r="Z9" s="19">
+        <v>0.25</v>
+      </c>
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
@@ -20833,7 +20784,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
       <c r="G10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10" s="19"/>
@@ -20892,7 +20843,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
       <c r="G11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="19"/>
@@ -20951,7 +20902,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="G12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="19"/>
@@ -21010,7 +20961,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
@@ -21069,7 +21020,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
       <c r="G14" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
@@ -21128,7 +21079,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="19"/>
@@ -21187,7 +21138,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="19"/>
@@ -21246,7 +21197,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" s="19"/>
@@ -21305,7 +21256,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="19"/>
@@ -21364,7 +21315,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="19"/>
@@ -21423,7 +21374,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="19"/>
@@ -21482,7 +21433,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="19"/>
@@ -21541,7 +21492,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="19"/>
@@ -21600,7 +21551,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="19"/>
@@ -21659,7 +21610,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="19"/>
@@ -21718,7 +21669,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
       <c r="G25" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="19"/>
@@ -21777,7 +21728,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
       <c r="G26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="19"/>
@@ -21836,7 +21787,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="19"/>
@@ -21895,7 +21846,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
       <c r="G28" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="19"/>
@@ -21954,7 +21905,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
       <c r="G29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="19"/>
@@ -22013,7 +21964,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
       <c r="G30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="19"/>
@@ -22072,7 +22023,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="19"/>
@@ -22131,7 +22082,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
       <c r="G32" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H32" s="19"/>
@@ -22190,7 +22141,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="G33" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33" s="19"/>
@@ -22249,7 +22200,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
       <c r="G34" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="19"/>
@@ -22308,7 +22259,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="31"/>
@@ -22369,127 +22320,127 @@
         <v>8</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <f t="shared" si="3"/>
+        <v>6.5</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" ref="XFD1048576:A1" si="3">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AK36" si="4">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q36" s="72">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="R36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="T36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Z36" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG36" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK36" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL36" s="1"/>
@@ -22920,61 +22871,71 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -23046,8 +23007,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -25746,12 +25707,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25821,8 +25782,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="143"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -28474,12 +28435,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28551,8 +28512,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -31251,12 +31212,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31327,8 +31288,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -34027,12 +33988,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34102,8 +34063,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="143"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="147"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -36755,12 +36716,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -451,8 +450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1502,49 +1501,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2074,12 +2045,27 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2100,11 +2086,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2163,6 +2152,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2222,16 +2212,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="50175360"/>
-        <c:axId val="50198400"/>
+        <c:smooth val="0"/>
+        <c:axId val="112118400"/>
+        <c:axId val="115086080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50175360"/>
+        <c:axId val="112118400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2252,7 +2253,10 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2264,16 +2268,19 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50198400"/>
+        <c:crossAx val="115086080"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50198400"/>
+        <c:axId val="115086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2303,8 +2310,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -2321,7 +2331,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50175360"/>
+        <c:crossAx val="112118400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,7 +2343,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2349,6 +2363,198 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9218" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12290" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11266" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="3200400" y="2276475"/>
@@ -2370,6 +2576,390 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6146" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8194" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7170" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10242" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2448,6 +3038,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2482,6 +3073,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2657,12 +3249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE43"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -2675,7 +3267,7 @@
     <col min="47" max="57" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="13.5" customHeight="1">
+    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2719,8 +3311,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -2734,7 +3326,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="16.5" customHeight="1">
+    <row r="2" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2873,7 +3465,7 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -2934,7 +3526,7 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1">
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -2995,7 +3587,7 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="13.5" customHeight="1">
+    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -3056,7 +3648,7 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1">
+    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
@@ -3115,7 +3707,7 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
@@ -3176,7 +3768,7 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
@@ -3237,7 +3829,7 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1">
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
@@ -3298,7 +3890,7 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1">
+    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
@@ -3359,7 +3951,7 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1">
+    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="62"/>
       <c r="C11" s="63"/>
@@ -3420,7 +4012,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1">
+    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
@@ -3479,7 +4071,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57" ht="13.5" customHeight="1">
+    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
@@ -3538,7 +4130,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" ht="13.5" customHeight="1">
+    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
@@ -3597,7 +4189,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1">
+    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
@@ -3656,7 +4248,7 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:57" ht="13.5" customHeight="1">
+    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -3715,7 +4307,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:57" ht="13.5" customHeight="1">
+    <row r="17" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -3774,7 +4366,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:57" ht="13.5" customHeight="1">
+    <row r="18" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -3833,7 +4425,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:57" ht="13.5" customHeight="1">
+    <row r="19" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -3892,7 +4484,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57" ht="13.5" customHeight="1">
+    <row r="20" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -3951,7 +4543,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" ht="13.5" customHeight="1">
+    <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -4010,7 +4602,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57" ht="13.5" customHeight="1">
+    <row r="22" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -4069,7 +4661,7 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
     </row>
-    <row r="23" spans="1:57" ht="13.5" customHeight="1">
+    <row r="23" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -4128,7 +4720,7 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:57" ht="13.5" customHeight="1">
+    <row r="24" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -4187,7 +4779,7 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
     </row>
-    <row r="25" spans="1:57" ht="13.5" customHeight="1">
+    <row r="25" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -4246,7 +4838,7 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
     </row>
-    <row r="26" spans="1:57" ht="13.5" customHeight="1">
+    <row r="26" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -4305,7 +4897,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="13.5" customHeight="1">
+    <row r="27" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -4364,7 +4956,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" ht="13.5" customHeight="1">
+    <row r="28" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -4423,7 +5015,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" ht="13.5" customHeight="1">
+    <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -4482,7 +5074,7 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
     </row>
-    <row r="30" spans="1:57" ht="13.5" customHeight="1">
+    <row r="30" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -4541,7 +5133,7 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
     </row>
-    <row r="31" spans="1:57" ht="13.5" customHeight="1">
+    <row r="31" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -4600,7 +5192,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="13.5" customHeight="1">
+    <row r="32" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -4659,7 +5251,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="13.5" customHeight="1">
+    <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -4718,7 +5310,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="13.5" customHeight="1">
+    <row r="34" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -4777,7 +5369,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57" ht="14.25" customHeight="1">
+    <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -4836,7 +5428,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="13.5" customHeight="1">
+    <row r="36" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4902,7 +5494,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="15.75" customHeight="1">
+    <row r="37" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4961,7 +5553,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" ht="12.75" customHeight="1">
+    <row r="38" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5024,7 +5616,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
     </row>
-    <row r="39" spans="1:57" ht="12.75" customHeight="1">
+    <row r="39" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5083,7 +5675,7 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
     </row>
-    <row r="40" spans="1:57" ht="12.75" customHeight="1">
+    <row r="40" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5144,7 +5736,7 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
     </row>
-    <row r="41" spans="1:57" ht="12.75" customHeight="1">
+    <row r="41" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5203,7 +5795,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
     </row>
-    <row r="42" spans="1:57" ht="12.75" customHeight="1">
+    <row r="42" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5264,7 +5856,7 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
     </row>
-    <row r="43" spans="1:57" ht="12.75" customHeight="1">
+    <row r="43" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5328,27 +5920,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -5360,7 +5953,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5404,8 +5997,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -5417,7 +6010,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -5552,7 +6145,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -5612,7 +6205,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -5672,7 +6265,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -5732,7 +6325,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -5792,7 +6385,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -5852,7 +6445,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -5912,7 +6505,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -5972,7 +6565,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -6032,7 +6625,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -6092,7 +6685,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -6152,7 +6745,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -6212,7 +6805,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -6272,7 +6865,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -6332,7 +6925,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -6392,7 +6985,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -6452,7 +7045,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -6512,7 +7105,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -6572,7 +7165,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -6632,7 +7225,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -6692,7 +7285,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -6752,7 +7345,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -6812,7 +7405,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -6872,7 +7465,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -6932,7 +7525,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -6992,7 +7585,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -7052,7 +7645,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -7112,7 +7705,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -7172,7 +7765,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -7232,7 +7825,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -7292,7 +7885,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -7352,7 +7945,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -7412,7 +8005,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -7472,7 +8065,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -7532,7 +8125,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7692,7 +8285,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7749,7 +8342,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7810,7 +8403,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7867,7 +8460,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7926,7 +8519,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7983,7 +8576,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8042,7 +8635,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8099,7 +8692,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8161,27 +8754,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -8193,7 +8787,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8236,8 +8830,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="148"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -8249,7 +8843,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8381,7 +8975,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -8440,7 +9034,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -8499,7 +9093,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -8558,7 +9152,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -8617,7 +9211,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -8676,7 +9270,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -8735,7 +9329,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -8794,7 +9388,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -8853,7 +9447,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -8912,7 +9506,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -8971,7 +9565,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -9030,7 +9624,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -9089,7 +9683,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -9148,7 +9742,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -9207,7 +9801,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -9266,7 +9860,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -9325,7 +9919,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -9384,7 +9978,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -9443,7 +10037,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -9502,7 +10096,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -9561,7 +10155,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -9620,7 +10214,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -9679,7 +10273,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -9738,7 +10332,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -9797,7 +10391,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -9856,7 +10450,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -9915,7 +10509,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -9974,7 +10568,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -10033,7 +10627,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -10092,7 +10686,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -10151,7 +10745,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -10210,7 +10804,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -10269,7 +10863,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -10328,7 +10922,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10484,7 +11078,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10540,7 +11134,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10600,7 +11194,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10656,7 +11250,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -10714,7 +11308,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -10770,7 +11364,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -10828,7 +11422,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -10884,7 +11478,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:54" ht="12.75" customHeight="1">
+    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10945,27 +11539,28 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -10977,7 +11572,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11021,8 +11616,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -11034,7 +11629,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="15.75" customHeight="1">
+    <row r="2" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -11169,7 +11764,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -11229,7 +11824,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -11289,7 +11884,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -11349,7 +11944,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -11409,7 +12004,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -11469,7 +12064,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -11529,7 +12124,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -11589,7 +12184,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -11649,7 +12244,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -11709,7 +12304,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -11769,7 +12364,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -11829,7 +12424,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -11889,7 +12484,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -11949,7 +12544,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -12009,7 +12604,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -12069,7 +12664,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -12129,7 +12724,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -12189,7 +12784,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -12249,7 +12844,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -12309,7 +12904,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -12369,7 +12964,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -12429,7 +13024,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -12489,7 +13084,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -12549,7 +13144,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -12609,7 +13204,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -12669,7 +13264,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -12729,7 +13324,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -12789,7 +13384,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -12849,7 +13444,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -12909,7 +13504,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -12969,7 +13564,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -13029,7 +13624,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -13089,7 +13684,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -13149,7 +13744,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -13309,7 +13904,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13366,7 +13961,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -13427,7 +14022,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -13484,7 +14079,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13543,7 +14138,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13600,7 +14195,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13659,7 +14254,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13716,7 +14311,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -13778,27 +14373,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -13807,7 +14403,7 @@
     <col min="20" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" customHeight="1">
+    <row r="1" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -13838,7 +14434,7 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -13871,7 +14467,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -13904,7 +14500,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1">
+    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -13935,7 +14531,7 @@
       <c r="AB4" s="108"/>
       <c r="AC4" s="108"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" customHeight="1">
+    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -13994,7 +14590,7 @@
       <c r="AB5" s="108"/>
       <c r="AC5" s="108"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -14066,7 +14662,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -14138,7 +14734,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -14169,7 +14765,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -14200,7 +14796,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -14231,7 +14827,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14262,7 +14858,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -14293,7 +14889,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -14324,7 +14920,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -14355,7 +14951,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14386,7 +14982,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14417,7 +15013,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -14448,7 +15044,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -14479,7 +15075,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -14510,7 +15106,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -14541,33 +15137,33 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14577,14 +15173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -14596,7 +15192,7 @@
     <col min="43" max="52" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14637,8 +15233,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="146"/>
-      <c r="AP1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="148"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -14650,7 +15246,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="16.5" customHeight="1">
+    <row r="2" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -14776,7 +15372,7 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="121">
         <v>84</v>
@@ -14845,7 +15441,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="13.5" customHeight="1">
+    <row r="4" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="129">
         <v>84</v>
@@ -14914,7 +15510,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="13.5" customHeight="1">
+    <row r="5" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="129">
         <v>84</v>
@@ -14983,7 +15579,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="13.5" customHeight="1">
+    <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="136">
         <v>84</v>
@@ -15052,7 +15648,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1">
+    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -15109,7 +15705,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="13.5" customHeight="1">
+    <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -15166,7 +15762,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="13.5" customHeight="1">
+    <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -15223,7 +15819,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="13.5" customHeight="1">
+    <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -15280,7 +15876,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="13.5" customHeight="1">
+    <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -15337,7 +15933,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="13.5" customHeight="1">
+    <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -15394,7 +15990,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="13.5" customHeight="1">
+    <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -15451,7 +16047,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="13.5" customHeight="1">
+    <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -15508,7 +16104,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="13.5" customHeight="1">
+    <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -15565,7 +16161,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="13.5" customHeight="1">
+    <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -15622,7 +16218,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" ht="13.5" customHeight="1">
+    <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -15679,7 +16275,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="13.5" customHeight="1">
+    <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -15736,7 +16332,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" ht="13.5" customHeight="1">
+    <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -15793,7 +16389,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" ht="13.5" customHeight="1">
+    <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -15850,7 +16446,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="13.5" customHeight="1">
+    <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -15907,7 +16503,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="13.5" customHeight="1">
+    <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -15964,7 +16560,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="13.5" customHeight="1">
+    <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -16021,7 +16617,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="13.5" customHeight="1">
+    <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -16078,7 +16674,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="13.5" customHeight="1">
+    <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -16135,7 +16731,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="13.5" customHeight="1">
+    <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -16192,7 +16788,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -16249,7 +16845,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -16306,7 +16902,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="13.5" customHeight="1">
+    <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -16363,7 +16959,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="13.5" customHeight="1">
+    <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -16420,7 +17016,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="13.5" customHeight="1">
+    <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -16477,7 +17073,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="13.5" customHeight="1">
+    <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -16534,7 +17130,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="13.5" customHeight="1">
+    <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -16591,7 +17187,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="13.5" customHeight="1">
+    <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -16648,7 +17244,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="13.5" customHeight="1">
+    <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -16705,7 +17301,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="13.5" customHeight="1">
+    <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16853,7 +17449,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="15.75" customHeight="1">
+    <row r="37" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16907,7 +17503,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="12.75" customHeight="1">
+    <row r="38" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16965,7 +17561,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="12.75" customHeight="1">
+    <row r="39" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -17019,7 +17615,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="12.75" customHeight="1">
+    <row r="40" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -17075,7 +17671,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
     </row>
-    <row r="41" spans="1:52" ht="12.75" customHeight="1">
+    <row r="41" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -17129,7 +17725,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
     </row>
-    <row r="42" spans="1:52" ht="12.75" customHeight="1">
+    <row r="42" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -17185,7 +17781,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" ht="12.75" customHeight="1">
+    <row r="43" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -17244,29 +17840,30 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -17278,7 +17875,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17322,8 +17919,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -17335,7 +17932,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -17470,7 +18067,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="136">
         <v>84</v>
@@ -17542,7 +18139,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="136">
         <v>84</v>
@@ -17614,7 +18211,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
         <v>84</v>
@@ -17686,7 +18283,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -17746,7 +18343,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -17806,7 +18403,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -17866,7 +18463,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -17926,7 +18523,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -17986,7 +18583,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -18046,7 +18643,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -18106,7 +18703,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -18166,7 +18763,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -18226,7 +18823,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -18286,7 +18883,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -18346,7 +18943,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -18406,7 +19003,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -18466,7 +19063,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -18526,7 +19123,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -18586,7 +19183,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -18646,7 +19243,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -18706,7 +19303,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -18766,7 +19363,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -18826,7 +19423,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -18886,7 +19483,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -18946,7 +19543,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -19006,7 +19603,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -19066,7 +19663,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -19126,7 +19723,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -19186,7 +19783,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -19246,7 +19843,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -19306,7 +19903,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -19366,7 +19963,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -19426,7 +20023,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -19486,7 +20083,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -19646,7 +20243,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -19703,7 +20300,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -19764,7 +20361,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19821,7 +20418,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -19880,7 +20477,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -19937,7 +20534,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -19996,7 +20593,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -20058,29 +20655,30 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -20092,7 +20690,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20135,8 +20733,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="148"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -20148,7 +20746,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -20280,7 +20878,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="142">
         <v>84</v>
@@ -20350,7 +20948,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>84</v>
@@ -20421,7 +21019,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>84</v>
@@ -20492,7 +21090,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="142">
         <v>84</v>
@@ -20563,7 +21161,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
         <v>84</v>
@@ -20634,7 +21232,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="142">
         <v>84</v>
@@ -20673,7 +21271,7 @@
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="148">
+      <c r="Z8" s="146">
         <v>0.75</v>
       </c>
       <c r="AA8" s="23"/>
@@ -20705,7 +21303,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21">
         <v>84</v>
@@ -20776,7 +21374,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -20835,7 +21433,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -20894,7 +21492,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -20953,7 +21551,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -21012,7 +21610,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -21071,7 +21669,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -21130,7 +21728,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -21189,7 +21787,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -21248,7 +21846,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -21307,7 +21905,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -21366,7 +21964,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -21425,7 +22023,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -21484,7 +22082,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -21543,7 +22141,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -21602,7 +22200,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -21661,7 +22259,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -21720,7 +22318,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -21779,7 +22377,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -21838,7 +22436,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -21897,7 +22495,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -21956,7 +22554,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -22015,7 +22613,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -22074,7 +22672,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -22133,7 +22731,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -22192,7 +22790,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -22251,7 +22849,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -22310,7 +22908,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -22466,7 +23064,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -22522,7 +23120,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -22582,7 +23180,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -22638,7 +23236,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -22696,7 +23294,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -22752,7 +23350,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -22810,7 +23408,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -22871,87 +23469,88 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -22963,7 +23562,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23007,8 +23606,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -23020,7 +23619,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -23155,7 +23754,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -23215,7 +23814,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -23275,7 +23874,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -23335,7 +23934,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -23395,7 +23994,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -23455,7 +24054,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -23515,7 +24114,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -23575,7 +24174,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -23635,7 +24234,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -23695,7 +24294,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -23755,7 +24354,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -23815,7 +24414,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -23875,7 +24474,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -23935,7 +24534,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -23995,7 +24594,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -24055,7 +24654,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -24115,7 +24714,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -24175,7 +24774,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -24235,7 +24834,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -24295,7 +24894,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -24355,7 +24954,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -24415,7 +25014,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -24475,7 +25074,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -24535,7 +25134,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -24595,7 +25194,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -24655,7 +25254,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -24715,7 +25314,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -24775,7 +25374,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -24835,7 +25434,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -24895,7 +25494,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -24955,7 +25554,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -25015,7 +25614,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -25075,7 +25674,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -25135,7 +25734,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -25295,7 +25894,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -25352,7 +25951,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -25413,7 +26012,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -25470,7 +26069,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -25529,7 +26128,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25586,7 +26185,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25645,7 +26244,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -25707,27 +26306,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -25739,7 +26339,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25782,8 +26382,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="148"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -25795,7 +26395,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -25927,7 +26527,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -25986,7 +26586,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -26045,7 +26645,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -26104,7 +26704,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -26163,7 +26763,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -26222,7 +26822,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -26281,7 +26881,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -26340,7 +26940,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -26399,7 +26999,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -26458,7 +27058,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -26517,7 +27117,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -26576,7 +27176,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -26635,7 +27235,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -26694,7 +27294,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -26753,7 +27353,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -26812,7 +27412,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -26871,7 +27471,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -26930,7 +27530,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -26989,7 +27589,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -27048,7 +27648,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -27107,7 +27707,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -27166,7 +27766,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -27225,7 +27825,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -27284,7 +27884,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -27343,7 +27943,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -27402,7 +28002,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -27461,7 +28061,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -27520,7 +28120,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -27579,7 +28179,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -27638,7 +28238,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -27697,7 +28297,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -27756,7 +28356,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -27815,7 +28415,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -27874,7 +28474,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -28030,7 +28630,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -28086,7 +28686,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28146,7 +28746,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28202,7 +28802,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28260,7 +28860,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28316,7 +28916,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28374,7 +28974,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -28435,27 +29035,28 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -28468,7 +29069,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -28512,8 +29113,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -28525,7 +29126,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -28660,7 +29261,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -28720,7 +29321,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -28780,7 +29381,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -28840,7 +29441,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -28900,7 +29501,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -28960,7 +29561,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -29020,7 +29621,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -29080,7 +29681,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -29140,7 +29741,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -29200,7 +29801,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -29260,7 +29861,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -29320,7 +29921,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -29380,7 +29981,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -29440,7 +30041,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -29500,7 +30101,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -29560,7 +30161,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -29620,7 +30221,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -29680,7 +30281,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -29740,7 +30341,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -29800,7 +30401,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -29860,7 +30461,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -29920,7 +30521,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -29980,7 +30581,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -30040,7 +30641,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -30100,7 +30701,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -30160,7 +30761,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -30220,7 +30821,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -30280,7 +30881,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -30340,7 +30941,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -30400,7 +31001,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -30460,7 +31061,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -30520,7 +31121,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -30580,7 +31181,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -30640,7 +31241,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -30800,7 +31401,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -30857,7 +31458,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -30918,7 +31519,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -30975,7 +31576,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31034,7 +31635,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -31091,7 +31692,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -31150,7 +31751,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -31212,27 +31813,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -31244,7 +31846,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -31288,8 +31890,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -31301,7 +31903,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -31436,7 +32038,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -31496,7 +32098,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -31556,7 +32158,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -31616,7 +32218,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -31676,7 +32278,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -31736,7 +32338,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -31796,7 +32398,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -31856,7 +32458,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -31916,7 +32518,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -31976,7 +32578,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -32036,7 +32638,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -32096,7 +32698,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -32156,7 +32758,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -32216,7 +32818,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -32276,7 +32878,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -32336,7 +32938,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -32396,7 +32998,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -32456,7 +33058,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -32516,7 +33118,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -32576,7 +33178,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -32636,7 +33238,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -32696,7 +33298,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -32756,7 +33358,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -32816,7 +33418,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -32876,7 +33478,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -32936,7 +33538,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -32996,7 +33598,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -33056,7 +33658,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -33116,7 +33718,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -33176,7 +33778,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -33236,7 +33838,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -33296,7 +33898,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -33356,7 +33958,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -33416,7 +34018,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -33576,7 +34178,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -33633,7 +34235,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -33694,7 +34296,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -33751,7 +34353,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -33810,7 +34412,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -33867,7 +34469,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -33926,7 +34528,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -33988,27 +34590,28 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -34020,7 +34623,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -34063,8 +34666,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="148"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -34076,7 +34679,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -34208,7 +34811,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -34267,7 +34870,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -34326,7 +34929,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -34385,7 +34988,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -34444,7 +35047,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -34503,7 +35106,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -34562,7 +35165,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -34621,7 +35224,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -34680,7 +35283,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -34739,7 +35342,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -34798,7 +35401,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -34857,7 +35460,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -34916,7 +35519,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -34975,7 +35578,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -35034,7 +35637,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -35093,7 +35696,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -35152,7 +35755,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -35211,7 +35814,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -35270,7 +35873,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -35329,7 +35932,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -35388,7 +35991,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -35447,7 +36050,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -35506,7 +36109,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -35565,7 +36168,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -35624,7 +36227,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -35683,7 +36286,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -35742,7 +36345,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -35801,7 +36404,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -35860,7 +36463,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -35919,7 +36522,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -35978,7 +36581,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -36037,7 +36640,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -36096,7 +36699,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -36155,7 +36758,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -36311,7 +36914,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -36367,7 +36970,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -36427,7 +37030,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -36483,7 +37086,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -36541,7 +37144,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -36597,7 +37200,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -36655,7 +37258,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -36716,16 +37319,17 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
@@ -35,7 +35,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="46">
   <si>
     <t>GP</t>
   </si>
@@ -446,12 +446,21 @@
   <si>
     <t>Fichero de lecciones aprendidas</t>
   </si>
+  <si>
+    <t>Reunion con el profesor: auditoria externa</t>
+  </si>
+  <si>
+    <t>Funcionalidad de modificar un modelo para el administrador</t>
+  </si>
+  <si>
+    <t>Funcionalidad de modificar un modelo para el administrador(Problemas version JAVA)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -521,6 +530,16 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -572,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1310,11 +1329,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,15 +1550,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2055,17 +2193,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2086,14 +2214,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2126,7 +2251,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2152,7 +2277,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2212,27 +2336,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="112118400"/>
-        <c:axId val="115086080"/>
+        <c:axId val="74155520"/>
+        <c:axId val="74157440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112118400"/>
+        <c:axId val="74155520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2253,10 +2366,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2268,19 +2378,16 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115086080"/>
+        <c:crossAx val="74157440"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115086080"/>
+        <c:axId val="74157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2310,11 +2417,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -2331,7 +2435,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112118400"/>
+        <c:crossAx val="74155520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2343,11 +2447,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2356,7 +2457,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3038,7 +3139,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3073,7 +3173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3249,12 +3348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE43"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -3267,7 +3366,7 @@
     <col min="47" max="57" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3311,8 +3410,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -3326,7 +3425,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3465,7 +3564,7 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -3526,7 +3625,7 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -3587,7 +3686,7 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -3648,7 +3747,7 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
@@ -3707,7 +3806,7 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
@@ -3768,7 +3867,7 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
@@ -3829,7 +3928,7 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
@@ -3890,7 +3989,7 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
@@ -3951,7 +4050,7 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="62"/>
       <c r="C11" s="63"/>
@@ -4012,7 +4111,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
@@ -4071,7 +4170,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
@@ -4130,7 +4229,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
@@ -4189,7 +4288,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
@@ -4248,7 +4347,7 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -4307,7 +4406,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -4366,7 +4465,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -4425,7 +4524,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -4484,7 +4583,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -4543,7 +4642,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -4602,7 +4701,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -4661,7 +4760,7 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
     </row>
-    <row r="23" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -4720,7 +4819,7 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -4779,7 +4878,7 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
     </row>
-    <row r="25" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -4838,7 +4937,7 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
     </row>
-    <row r="26" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -4897,7 +4996,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -4956,7 +5055,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -5015,7 +5114,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -5074,7 +5173,7 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
     </row>
-    <row r="30" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -5133,7 +5232,7 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
     </row>
-    <row r="31" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -5192,7 +5291,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -5251,7 +5350,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -5310,7 +5409,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -5369,7 +5468,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -5428,7 +5527,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5494,7 +5593,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5553,7 +5652,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5616,7 +5715,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
     </row>
-    <row r="39" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5675,7 +5774,7 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
     </row>
-    <row r="40" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5736,7 +5835,7 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
     </row>
-    <row r="41" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5795,7 +5894,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
     </row>
-    <row r="42" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5856,7 +5955,7 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
     </row>
-    <row r="43" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5920,12 +6019,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5936,12 +6035,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -5953,7 +6052,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5997,8 +6096,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -6010,7 +6109,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -6145,7 +6244,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -6205,7 +6304,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -6265,7 +6364,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -6325,7 +6424,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -6385,7 +6484,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -6445,7 +6544,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -6505,7 +6604,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -6565,7 +6664,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -6625,7 +6724,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -6685,7 +6784,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -6745,7 +6844,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -6805,7 +6904,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -6865,7 +6964,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -6925,7 +7024,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -6985,7 +7084,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -7045,7 +7144,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -7105,7 +7204,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -7165,7 +7264,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -7225,7 +7324,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -7285,7 +7384,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -7345,7 +7444,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -7405,7 +7504,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -7465,7 +7564,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -7525,7 +7624,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -7585,7 +7684,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -7645,7 +7744,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -7705,7 +7804,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -7765,7 +7864,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -7825,7 +7924,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -7885,7 +7984,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -7945,7 +8044,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -8005,7 +8104,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -8065,7 +8164,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -8125,7 +8224,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8285,7 +8384,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8342,7 +8441,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8403,7 +8502,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8460,7 +8559,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8519,7 +8618,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8576,7 +8675,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8635,7 +8734,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8692,7 +8791,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8754,12 +8853,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8770,12 +8869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -8787,7 +8886,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8830,8 +8929,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="148"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="153"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -8843,7 +8942,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8975,7 +9074,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -9034,7 +9133,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -9093,7 +9192,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -9152,7 +9251,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -9211,7 +9310,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -9270,7 +9369,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -9329,7 +9428,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -9388,7 +9487,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -9447,7 +9546,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -9506,7 +9605,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -9565,7 +9664,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -9624,7 +9723,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -9683,7 +9782,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -9742,7 +9841,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -9801,7 +9900,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -9860,7 +9959,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -9919,7 +10018,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -9978,7 +10077,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -10037,7 +10136,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -10096,7 +10195,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -10155,7 +10254,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -10214,7 +10313,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -10273,7 +10372,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -10332,7 +10431,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -10391,7 +10490,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -10450,7 +10549,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -10509,7 +10608,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -10568,7 +10667,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -10627,7 +10726,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -10686,7 +10785,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -10745,7 +10844,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -10804,7 +10903,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -10863,7 +10962,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -10922,7 +11021,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11078,7 +11177,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11134,7 +11233,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11194,7 +11293,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11250,7 +11349,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11308,7 +11407,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11364,7 +11463,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11422,7 +11521,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11478,7 +11577,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11539,12 +11638,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11555,12 +11654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -11572,7 +11671,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11616,8 +11715,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -11629,7 +11728,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -11764,7 +11863,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -11824,7 +11923,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -11884,7 +11983,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -11944,7 +12043,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -12004,7 +12103,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -12064,7 +12163,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -12124,7 +12223,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -12184,7 +12283,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -12244,7 +12343,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -12304,7 +12403,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -12364,7 +12463,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -12424,7 +12523,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -12484,7 +12583,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -12544,7 +12643,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -12604,7 +12703,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -12664,7 +12763,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -12724,7 +12823,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -12784,7 +12883,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -12844,7 +12943,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -12904,7 +13003,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -12964,7 +13063,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -13024,7 +13123,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -13084,7 +13183,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -13144,7 +13243,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -13204,7 +13303,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -13264,7 +13363,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -13324,7 +13423,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -13384,7 +13483,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -13444,7 +13543,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -13504,7 +13603,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -13564,7 +13663,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -13624,7 +13723,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -13684,7 +13783,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -13744,7 +13843,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -13904,7 +14003,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13961,7 +14060,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -14022,7 +14121,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -14079,7 +14178,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -14138,7 +14237,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -14195,7 +14294,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -14254,7 +14353,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -14311,7 +14410,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -14373,12 +14472,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14389,12 +14488,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -14403,7 +14502,7 @@
     <col min="20" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="21" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -14434,7 +14533,7 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -14467,7 +14566,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -14500,7 +14599,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -14531,7 +14630,7 @@
       <c r="AB4" s="108"/>
       <c r="AC4" s="108"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.5" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -14590,7 +14689,7 @@
       <c r="AB5" s="108"/>
       <c r="AC5" s="108"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -14601,7 +14700,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14621,7 +14720,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -14662,7 +14761,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -14734,7 +14833,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -14765,7 +14864,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -14796,7 +14895,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -14827,7 +14926,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14858,7 +14957,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -14889,7 +14988,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -14920,7 +15019,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -14951,7 +15050,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14982,7 +15081,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -15013,7 +15112,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -15044,7 +15143,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -15075,7 +15174,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -15106,7 +15205,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -15137,33 +15236,33 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15173,14 +15272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -15192,7 +15291,7 @@
     <col min="43" max="52" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15233,8 +15332,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="148"/>
+      <c r="AO1" s="152"/>
+      <c r="AP1" s="153"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -15246,7 +15345,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -15372,7 +15471,7 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="121">
         <v>84</v>
@@ -15441,7 +15540,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="129">
         <v>84</v>
@@ -15510,7 +15609,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="129">
         <v>84</v>
@@ -15579,7 +15678,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="136">
         <v>84</v>
@@ -15648,7 +15747,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -15705,7 +15804,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -15762,7 +15861,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -15819,7 +15918,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -15876,7 +15975,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -15933,7 +16032,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -15990,7 +16089,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -16047,7 +16146,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -16104,7 +16203,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -16161,7 +16260,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -16218,7 +16317,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -16275,7 +16374,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -16332,7 +16431,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -16389,7 +16488,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -16446,7 +16545,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -16503,7 +16602,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -16560,7 +16659,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -16617,7 +16716,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -16674,7 +16773,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -16731,7 +16830,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -16788,7 +16887,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -16845,7 +16944,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -16902,7 +17001,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -16959,7 +17058,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -17016,7 +17115,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -17073,7 +17172,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -17130,7 +17229,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -17187,7 +17286,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -17244,7 +17343,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -17301,7 +17400,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17449,7 +17548,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17503,7 +17602,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -17561,7 +17660,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -17615,7 +17714,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -17671,7 +17770,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
     </row>
-    <row r="41" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -17725,7 +17824,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
     </row>
-    <row r="42" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -17781,7 +17880,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -17840,12 +17939,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17856,14 +17955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -17875,7 +17974,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17919,8 +18018,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -17932,7 +18031,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -18067,7 +18166,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="136">
         <v>84</v>
@@ -18139,7 +18238,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="136">
         <v>84</v>
@@ -18211,7 +18310,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
         <v>84</v>
@@ -18283,7 +18382,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -18343,7 +18442,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -18403,7 +18502,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -18463,7 +18562,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -18523,7 +18622,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -18583,7 +18682,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -18643,7 +18742,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -18703,7 +18802,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -18763,7 +18862,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -18823,7 +18922,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -18883,7 +18982,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -18943,7 +19042,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -19003,7 +19102,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -19063,7 +19162,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -19123,7 +19222,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -19183,7 +19282,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -19243,7 +19342,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -19303,7 +19402,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -19363,7 +19462,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -19423,7 +19522,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -19483,7 +19582,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -19543,7 +19642,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -19603,7 +19702,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -19663,7 +19762,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -19723,7 +19822,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -19783,7 +19882,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -19843,7 +19942,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -19903,7 +20002,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -19963,7 +20062,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -20023,7 +20122,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -20083,7 +20182,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -20243,7 +20342,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -20300,7 +20399,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -20361,7 +20460,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -20418,7 +20517,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -20477,7 +20576,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -20534,7 +20633,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -20593,7 +20692,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -20655,12 +20754,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20671,14 +20770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AK9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -20690,7 +20789,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20733,8 +20832,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="148"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="153"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -20746,7 +20845,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -20878,7 +20977,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="142">
         <v>84</v>
@@ -20948,7 +21047,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>84</v>
@@ -21019,7 +21118,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>84</v>
@@ -21031,7 +21130,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>36</v>
@@ -21090,7 +21189,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="142">
         <v>84</v>
@@ -21161,7 +21260,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="141" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
         <v>84</v>
@@ -21232,7 +21331,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="145" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="142">
         <v>84</v>
@@ -21303,7 +21402,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21">
         <v>84</v>
@@ -21374,7 +21473,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -21433,7 +21532,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -21492,7 +21591,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -21551,7 +21650,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -21610,7 +21709,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -21669,7 +21768,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -21728,7 +21827,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -21787,7 +21886,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -21846,7 +21945,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -21905,7 +22004,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -21964,7 +22063,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -22023,7 +22122,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -22082,7 +22181,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -22141,7 +22240,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -22200,7 +22299,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -22259,7 +22358,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -22318,7 +22417,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -22377,7 +22476,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -22436,7 +22535,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -22495,7 +22594,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -22554,7 +22653,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -22613,7 +22712,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -22672,7 +22771,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -22731,7 +22830,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -22790,7 +22889,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -22849,7 +22948,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -22908,7 +23007,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -23064,7 +23163,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -23120,7 +23219,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -23180,7 +23279,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -23236,7 +23335,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -23294,7 +23393,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -23350,7 +23449,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -23408,7 +23507,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -23469,72 +23568,72 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23545,12 +23644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -23562,7 +23663,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23606,8 +23707,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -23619,7 +23720,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -23754,16 +23855,26 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+    <row r="3" spans="1:55" s="151" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A3" s="148"/>
+      <c r="B3" s="21">
+        <v>84</v>
+      </c>
+      <c r="C3" s="149">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>44</v>
+      </c>
+      <c r="E3" s="150">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>43</v>
+      </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
-        <v>0</v>
+        <f t="shared" ref="G3" si="0">SUM(H3:AL3)</f>
+        <v>1</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -23771,7 +23882,9 @@
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="N3" s="48">
+        <v>1</v>
+      </c>
       <c r="O3" s="48"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -23796,34 +23909,44 @@
       <c r="AJ3" s="48"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-    </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="148"/>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="148"/>
+      <c r="AU3" s="148"/>
+      <c r="AV3" s="148"/>
+      <c r="AW3" s="148"/>
+      <c r="AX3" s="148"/>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="148"/>
+      <c r="BB3" s="148"/>
+      <c r="BC3" s="148"/>
+    </row>
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="21">
+        <v>84</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>55</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G4:G36" si="1">SUM(H4:AL4)</f>
+        <v>1</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -23837,7 +23960,9 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="T4" s="23">
+        <v>1</v>
+      </c>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
       <c r="W4" s="19"/>
@@ -23874,16 +23999,26 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="147" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="21">
+        <v>84</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>55</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G5" si="2">SUM(H5:AL5)</f>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -23898,7 +24033,9 @@
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="U5" s="23">
+        <v>1</v>
+      </c>
       <c r="V5" s="23"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
@@ -23934,7 +24071,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -23942,7 +24079,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
       <c r="G6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="19"/>
@@ -23994,7 +24131,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -24002,7 +24139,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="G7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="19"/>
@@ -24054,7 +24191,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -24062,7 +24199,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
       <c r="G8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="19"/>
@@ -24114,7 +24251,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -24122,7 +24259,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="19"/>
@@ -24174,7 +24311,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -24182,7 +24319,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
       <c r="G10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="19"/>
@@ -24234,7 +24371,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -24242,7 +24379,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="19"/>
@@ -24294,7 +24431,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -24302,7 +24439,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="G12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="19"/>
@@ -24354,7 +24491,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -24362,7 +24499,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
       <c r="G13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
@@ -24414,7 +24551,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -24422,7 +24559,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
       <c r="G14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
@@ -24474,7 +24611,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -24482,7 +24619,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="19"/>
@@ -24534,7 +24671,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -24542,7 +24679,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="19"/>
@@ -24594,7 +24731,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -24602,7 +24739,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="19"/>
@@ -24654,7 +24791,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -24662,7 +24799,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="19"/>
@@ -24714,7 +24851,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -24722,7 +24859,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="19"/>
@@ -24774,7 +24911,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -24782,7 +24919,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="19"/>
@@ -24834,7 +24971,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -24842,7 +24979,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="19"/>
@@ -24894,7 +25031,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -24902,7 +25039,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="19"/>
@@ -24954,7 +25091,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -24962,7 +25099,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="19"/>
@@ -25014,7 +25151,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -25022,7 +25159,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="19"/>
@@ -25074,7 +25211,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -25082,7 +25219,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
       <c r="G25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="19"/>
@@ -25134,7 +25271,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -25142,7 +25279,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
       <c r="G26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="19"/>
@@ -25194,7 +25331,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -25202,7 +25339,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="19"/>
@@ -25254,7 +25391,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -25262,7 +25399,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
       <c r="G28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="19"/>
@@ -25314,7 +25451,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -25322,7 +25459,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
       <c r="G29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="19"/>
@@ -25374,7 +25511,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -25382,7 +25519,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
       <c r="G30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="19"/>
@@ -25434,7 +25571,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -25442,7 +25579,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="19"/>
@@ -25494,7 +25631,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -25502,7 +25639,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
       <c r="G32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="19"/>
@@ -25554,7 +25691,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -25562,7 +25699,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="G33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="19"/>
@@ -25614,7 +25751,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -25622,7 +25759,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
       <c r="G34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="19"/>
@@ -25674,7 +25811,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -25682,7 +25819,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="31"/>
@@ -25734,7 +25871,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -25744,131 +25881,131 @@
         <v>8</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T36" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U36" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM36" s="1"/>
@@ -25894,7 +26031,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -25951,7 +26088,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26012,7 +26149,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26069,7 +26206,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26128,7 +26265,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26185,7 +26322,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26244,7 +26381,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26306,12 +26443,32 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26322,12 +26479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -26339,7 +26496,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -26382,8 +26539,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="148"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="153"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -26395,7 +26552,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -26527,7 +26684,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -26586,7 +26743,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -26645,7 +26802,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -26704,7 +26861,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -26763,7 +26920,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -26822,7 +26979,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -26881,7 +27038,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -26940,7 +27097,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -26999,7 +27156,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -27058,7 +27215,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -27117,7 +27274,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -27176,7 +27333,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -27235,7 +27392,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -27294,7 +27451,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -27353,7 +27510,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -27412,7 +27569,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -27471,7 +27628,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -27530,7 +27687,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -27589,7 +27746,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -27648,7 +27805,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -27707,7 +27864,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -27766,7 +27923,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -27825,7 +27982,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -27884,7 +28041,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -27943,7 +28100,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -28002,7 +28159,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -28061,7 +28218,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -28120,7 +28277,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -28179,7 +28336,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -28238,7 +28395,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -28297,7 +28454,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -28356,7 +28513,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -28415,7 +28572,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -28474,7 +28631,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -28630,7 +28787,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -28686,7 +28843,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28746,7 +28903,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28802,7 +28959,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28860,7 +29017,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28916,7 +29073,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28974,7 +29131,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29035,12 +29192,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29051,12 +29208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -29069,7 +29226,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -29113,8 +29270,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -29126,7 +29283,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -29261,7 +29418,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -29321,7 +29478,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -29381,7 +29538,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -29441,7 +29598,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -29501,7 +29658,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -29561,7 +29718,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -29621,7 +29778,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -29681,7 +29838,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -29741,7 +29898,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -29801,7 +29958,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -29861,7 +30018,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -29921,7 +30078,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -29981,7 +30138,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -30041,7 +30198,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -30101,7 +30258,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -30161,7 +30318,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -30221,7 +30378,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -30281,7 +30438,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -30341,7 +30498,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -30401,7 +30558,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -30461,7 +30618,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -30521,7 +30678,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -30581,7 +30738,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -30641,7 +30798,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -30701,7 +30858,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -30761,7 +30918,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -30821,7 +30978,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -30881,7 +31038,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -30941,7 +31098,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -31001,7 +31158,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -31061,7 +31218,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -31121,7 +31278,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -31181,7 +31338,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -31241,7 +31398,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -31401,7 +31558,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -31458,7 +31615,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -31519,7 +31676,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -31576,7 +31733,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31635,7 +31792,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -31692,7 +31849,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -31751,7 +31908,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -31813,12 +31970,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31829,12 +31986,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -31846,7 +32003,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -31890,8 +32047,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="153"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -31903,7 +32060,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -32038,7 +32195,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -32098,7 +32255,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -32158,7 +32315,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -32218,7 +32375,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -32278,7 +32435,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -32338,7 +32495,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -32398,7 +32555,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -32458,7 +32615,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -32518,7 +32675,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -32578,7 +32735,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -32638,7 +32795,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -32698,7 +32855,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -32758,7 +32915,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -32818,7 +32975,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -32878,7 +33035,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -32938,7 +33095,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -32998,7 +33155,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -33058,7 +33215,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -33118,7 +33275,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -33178,7 +33335,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -33238,7 +33395,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -33298,7 +33455,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -33358,7 +33515,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -33418,7 +33575,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -33478,7 +33635,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -33538,7 +33695,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -33598,7 +33755,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -33658,7 +33815,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -33718,7 +33875,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -33778,7 +33935,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -33838,7 +33995,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -33898,7 +34055,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -33958,7 +34115,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -34018,7 +34175,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -34178,7 +34335,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -34235,7 +34392,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -34296,7 +34453,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -34353,7 +34510,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -34412,7 +34569,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -34469,7 +34626,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -34528,7 +34685,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -34590,12 +34747,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34606,12 +34763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -34623,7 +34780,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -34666,8 +34823,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="148"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="153"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -34679,7 +34836,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -34811,7 +34968,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -34870,7 +35027,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -34929,7 +35086,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -34988,7 +35145,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -35047,7 +35204,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -35106,7 +35263,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -35165,7 +35322,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -35224,7 +35381,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -35283,7 +35440,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -35342,7 +35499,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -35401,7 +35558,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -35460,7 +35617,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -35519,7 +35676,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -35578,7 +35735,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -35637,7 +35794,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -35696,7 +35853,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -35755,7 +35912,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -35814,7 +35971,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -35873,7 +36030,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -35932,7 +36089,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -35991,7 +36148,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -36050,7 +36207,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -36109,7 +36266,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -36168,7 +36325,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -36227,7 +36384,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -36286,7 +36443,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -36345,7 +36502,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -36404,7 +36561,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -36463,7 +36620,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -36522,7 +36679,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -36581,7 +36738,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -36640,7 +36797,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -36699,7 +36856,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -36758,7 +36915,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -36914,7 +37071,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -36970,7 +37127,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -37030,7 +37187,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -37086,7 +37243,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -37144,7 +37301,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -37200,7 +37357,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -37258,7 +37415,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -37319,12 +37476,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
   <si>
     <t>GP</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Funcionalidad de modificar un modelo para el administrador(Problemas version JAVA)</t>
+  </si>
+  <si>
+    <t>Reuncion para preparar la presentacion</t>
+  </si>
+  <si>
+    <t>Corregido vista de la aplicación Administrador y Cliente</t>
   </si>
 </sst>
 </file>
@@ -1564,12 +1570,40 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2251,7 +2285,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2338,11 +2372,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74155520"/>
-        <c:axId val="74157440"/>
+        <c:axId val="72731264"/>
+        <c:axId val="72737536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74155520"/>
+        <c:axId val="72731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,13 +2412,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74157440"/>
+        <c:crossAx val="72737536"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74157440"/>
+        <c:axId val="72737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,7 +2469,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74155520"/>
+        <c:crossAx val="72731264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,7 +2491,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6019,12 +6053,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8853,12 +8887,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11638,12 +11672,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14472,12 +14506,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14700,7 +14734,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14720,7 +14754,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -15257,12 +15291,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17939,12 +17973,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20754,12 +20788,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23568,72 +23602,72 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23648,7 +23682,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24017,7 +24051,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G5" si="2">SUM(H5:AL5)</f>
+        <f t="shared" ref="G5:G6" si="2">SUM(H5:AL5)</f>
         <v>1</v>
       </c>
       <c r="H5" s="19"/>
@@ -24071,16 +24105,26 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+    <row r="6" spans="1:55" s="151" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="148"/>
+      <c r="B6" s="21">
+        <v>84</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>58</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -24095,7 +24139,9 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="U6" s="23">
+        <v>1</v>
+      </c>
       <c r="V6" s="23"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
@@ -24113,34 +24159,44 @@
       <c r="AJ6" s="23"/>
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AM6" s="148"/>
+      <c r="AN6" s="148"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="148"/>
+      <c r="AQ6" s="148"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="22"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
+      <c r="AT6" s="148"/>
+      <c r="AU6" s="148"/>
+      <c r="AV6" s="148"/>
+      <c r="AW6" s="148"/>
+      <c r="AX6" s="148"/>
+      <c r="AY6" s="148"/>
+      <c r="AZ6" s="148"/>
+      <c r="BA6" s="148"/>
+      <c r="BB6" s="148"/>
+      <c r="BC6" s="148"/>
     </row>
     <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="21">
+        <v>84</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>54</v>
+      </c>
+      <c r="E7" s="24">
+        <v>5</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -24157,7 +24213,9 @@
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="19"/>
+      <c r="W7" s="19">
+        <v>0.25</v>
+      </c>
       <c r="X7" s="19"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
@@ -25882,7 +25940,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -25938,7 +25996,7 @@
       </c>
       <c r="U36" s="72">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" s="72">
         <f t="shared" si="3"/>
@@ -25946,7 +26004,7 @@
       </c>
       <c r="W36" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X36" s="37">
         <f t="shared" si="3"/>
@@ -26443,12 +26501,22 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26462,13 +26530,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29192,12 +29260,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31970,12 +32038,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34747,12 +34815,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37476,12 +37544,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
   <si>
     <t>GP</t>
   </si>
@@ -456,10 +456,13 @@
     <t>Funcionalidad de modificar un modelo para el administrador(Problemas version JAVA)</t>
   </si>
   <si>
-    <t>Reuncion para preparar la presentacion</t>
+    <t>Corregido vista de la aplicación Administrador y Cliente</t>
   </si>
   <si>
-    <t>Corregido vista de la aplicación Administrador y Cliente</t>
+    <t>Mirar tareas pendientes memoria del proyecto</t>
+  </si>
+  <si>
+    <t>Reunion para preparar la presentacion</t>
   </si>
 </sst>
 </file>
@@ -1570,40 +1573,12 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2285,7 +2260,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2372,11 +2347,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72731264"/>
-        <c:axId val="72737536"/>
+        <c:axId val="47358720"/>
+        <c:axId val="47361024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72731264"/>
+        <c:axId val="47358720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,13 +2387,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72737536"/>
+        <c:crossAx val="47361024"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72737536"/>
+        <c:axId val="47361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2444,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72731264"/>
+        <c:crossAx val="47358720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,7 +2466,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6053,12 +6028,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8887,12 +8862,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11672,12 +11647,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14506,12 +14481,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14734,7 +14709,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14754,7 +14729,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -15291,12 +15266,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17973,12 +17948,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20788,12 +20763,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23602,72 +23577,72 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23682,7 +23657,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24120,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="2"/>
@@ -24192,7 +24167,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
@@ -24251,14 +24226,24 @@
     </row>
     <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="21">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>57</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="G8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -24276,7 +24261,9 @@
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="X8" s="19">
+        <v>0.5</v>
+      </c>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
@@ -25940,7 +25927,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -26008,7 +25995,7 @@
       </c>
       <c r="X36" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y36" s="72">
         <f t="shared" si="3"/>
@@ -26501,42 +26488,42 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29260,12 +29247,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32038,12 +32025,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34815,12 +34802,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37544,12 +37531,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
   <si>
     <t>GP</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Reunion para preparar la presentacion</t>
+  </si>
+  <si>
+    <t>Reunion para preparar la presentacion tecnica y reparto de tareas</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1576,35 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2218,11 +2249,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-ES"/>
               <a:t>Gráfica Esfuerzos totales/Formación</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2260,7 +2293,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.75</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2347,11 +2380,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47358720"/>
-        <c:axId val="47361024"/>
+        <c:axId val="76131712"/>
+        <c:axId val="76171136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47358720"/>
+        <c:axId val="76131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,11 +2403,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="es-ES"/>
                   <a:t>Mes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2387,13 +2422,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47361024"/>
+        <c:crossAx val="76171136"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47361024"/>
+        <c:axId val="76171136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,11 +2456,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="es-ES"/>
                   <a:t>Horas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2444,7 +2481,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47358720"/>
+        <c:crossAx val="76131712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,6 +2493,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2466,7 +2504,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6028,12 +6066,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8862,12 +8900,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11647,12 +11685,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14481,12 +14519,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14709,7 +14747,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>19.75</v>
+        <v>20.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14729,7 +14767,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -15266,12 +15304,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17948,12 +17986,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20763,12 +20801,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23577,72 +23615,72 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23657,7 +23695,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24296,16 +24334,26 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+    <row r="9" spans="1:55" s="151" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="148"/>
+      <c r="B9" s="21">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>58</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -24324,7 +24372,9 @@
       <c r="V9" s="23"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
-      <c r="Y9" s="23"/>
+      <c r="Y9" s="23">
+        <v>1</v>
+      </c>
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
@@ -24338,23 +24388,23 @@
       <c r="AJ9" s="23"/>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
+      <c r="AM9" s="148"/>
+      <c r="AN9" s="148"/>
+      <c r="AO9" s="148"/>
+      <c r="AP9" s="148"/>
+      <c r="AQ9" s="148"/>
       <c r="AR9" s="21"/>
       <c r="AS9" s="22"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
+      <c r="AT9" s="148"/>
+      <c r="AU9" s="148"/>
+      <c r="AV9" s="148"/>
+      <c r="AW9" s="148"/>
+      <c r="AX9" s="148"/>
+      <c r="AY9" s="148"/>
+      <c r="AZ9" s="148"/>
+      <c r="BA9" s="148"/>
+      <c r="BB9" s="148"/>
+      <c r="BC9" s="148"/>
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
@@ -25927,7 +25977,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -25999,7 +26049,7 @@
       </c>
       <c r="Y36" s="72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="72">
         <f t="shared" si="3"/>
@@ -26488,12 +26538,22 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26507,23 +26567,23 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29247,12 +29307,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32025,12 +32085,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34802,12 +34862,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37531,12 +37591,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="51">
   <si>
     <t>GP</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Reunion para preparar la presentacion</t>
+  </si>
+  <si>
+    <t>Presentacion tecnica</t>
+  </si>
+  <si>
+    <t>Reunion para repartir tareas memoria</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,6 +1570,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,7 +1580,35 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2260,7 +2295,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.75</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2347,11 +2382,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47358720"/>
-        <c:axId val="47361024"/>
+        <c:axId val="47620864"/>
+        <c:axId val="47623168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47358720"/>
+        <c:axId val="47620864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,13 +2422,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47361024"/>
+        <c:crossAx val="47623168"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47361024"/>
+        <c:axId val="47623168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2479,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47358720"/>
+        <c:crossAx val="47620864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,7 +2501,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3419,8 +3454,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -6028,12 +6063,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6105,8 +6140,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -8862,12 +8897,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8938,8 +8973,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="154"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -11647,12 +11682,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11724,8 +11759,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -14481,12 +14516,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14709,7 +14744,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>19.75</v>
+        <v>21.5</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14729,7 +14764,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -15266,12 +15301,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15341,8 +15376,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="152"/>
-      <c r="AP1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="154"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -17948,12 +17983,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18027,8 +18062,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -20763,12 +20798,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20841,8 +20876,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="154"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -23577,72 +23612,72 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23657,7 +23692,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23716,8 +23751,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -24296,16 +24331,26 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" s="152" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>58</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -24329,7 +24374,9 @@
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
-      <c r="AD9" s="19"/>
+      <c r="AD9" s="19">
+        <v>0.75</v>
+      </c>
       <c r="AE9" s="19"/>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23"/>
@@ -24356,16 +24403,26 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" s="152" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="21">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>40</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -24391,7 +24448,9 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="23">
+        <v>1</v>
+      </c>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
@@ -25927,7 +25986,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -26019,7 +26078,7 @@
       </c>
       <c r="AD36" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE36" s="37">
         <f t="shared" si="3"/>
@@ -26027,7 +26086,7 @@
       </c>
       <c r="AF36" s="72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="72">
         <f t="shared" si="3"/>
@@ -26488,48 +26547,49 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -26594,8 +26654,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="154"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -29247,12 +29307,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29325,8 +29385,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -32025,12 +32085,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32102,8 +32162,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="154"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -34802,12 +34862,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34878,8 +34938,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="154"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -37531,12 +37591,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
   <si>
     <t>GP</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Reunion para preparar la presentacion tecnica y reparto de tareas</t>
+  </si>
+  <si>
+    <t>Presentacion técnica</t>
+  </si>
+  <si>
+    <t>Reunion repartir tareas memoria</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2261,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2293,7 +2298,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2380,11 +2385,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76131712"/>
-        <c:axId val="76171136"/>
+        <c:axId val="82309888"/>
+        <c:axId val="82312192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76131712"/>
+        <c:axId val="82309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2414,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2422,13 +2426,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76171136"/>
+        <c:crossAx val="82312192"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76171136"/>
+        <c:axId val="82312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2466,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2481,7 +2484,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76131712"/>
+        <c:crossAx val="82309888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,7 +2496,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2504,7 +2506,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8900,12 +8902,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11685,12 +11687,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14519,12 +14521,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14747,7 +14749,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>20.75</v>
+        <v>22.5</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14767,7 +14769,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -15304,12 +15306,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23695,7 +23697,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24408,14 +24410,24 @@
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="21">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>58</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -24439,7 +24451,9 @@
       <c r="AA10" s="23"/>
       <c r="AB10" s="23"/>
       <c r="AC10" s="23"/>
-      <c r="AD10" s="19"/>
+      <c r="AD10" s="19">
+        <v>0.75</v>
+      </c>
       <c r="AE10" s="19"/>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
@@ -24468,14 +24482,24 @@
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="21">
+        <v>84</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23">
+        <v>40</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -24501,7 +24525,9 @@
       <c r="AC11" s="23"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="23"/>
+      <c r="AF11" s="23">
+        <v>1</v>
+      </c>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
@@ -25977,7 +26003,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -26069,7 +26095,7 @@
       </c>
       <c r="AD36" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE36" s="37">
         <f t="shared" si="3"/>
@@ -26077,7 +26103,7 @@
       </c>
       <c r="AF36" s="72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="72">
         <f t="shared" si="3"/>
@@ -26578,12 +26604,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29307,12 +29333,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32085,12 +32111,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34862,12 +34888,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37591,12 +37617,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Christian.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
   <si>
     <t>GP</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Reunion repartir tareas memoria</t>
+  </si>
+  <si>
+    <t>Estructura de la memoria y breve descripcion de todos los puntos</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2301,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2385,11 +2388,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82309888"/>
-        <c:axId val="82312192"/>
+        <c:axId val="47510272"/>
+        <c:axId val="47512576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82309888"/>
+        <c:axId val="47510272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,13 +2429,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82312192"/>
+        <c:crossAx val="47512576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82312192"/>
+        <c:axId val="47512576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2487,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82309888"/>
+        <c:crossAx val="47510272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2506,7 +2509,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14749,7 +14752,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14769,7 +14772,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -23697,7 +23700,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24554,14 +24557,24 @@
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="21">
+        <v>84</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>57</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -24588,7 +24601,9 @@
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
+      <c r="AG12" s="23">
+        <v>1</v>
+      </c>
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="23"/>
@@ -26003,7 +26018,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="3">SUM(H3:H35)</f>
@@ -26107,7 +26122,7 @@
       </c>
       <c r="AG36" s="72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="72">
         <f t="shared" si="3"/>
